--- a/zeitgeist/concepts/meister_der_elemente/Zahlen_Meister-der-Elemente.xlsx
+++ b/zeitgeist/concepts/meister_der_elemente/Zahlen_Meister-der-Elemente.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="6">
   <si>
     <t>Feuer</t>
   </si>
@@ -40,7 +40,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -48,8 +48,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -62,8 +69,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.749992370372631"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -71,15 +90,160 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -374,10 +538,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:H8"/>
+  <dimension ref="B2:P26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="B20" sqref="B20:H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -409,7 +573,7 @@
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="3">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E3" s="3">
         <v>12</v>
@@ -529,8 +693,414 @@
       </c>
       <c r="H8" s="2"/>
     </row>
+    <row r="10" spans="2:8" ht="15.75" thickBot="1"/>
+    <row r="11" spans="2:8">
+      <c r="B11" s="4"/>
+      <c r="C11" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8">
+      <c r="B12" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="12">
+        <v>8</v>
+      </c>
+      <c r="D12" s="5">
+        <v>4</v>
+      </c>
+      <c r="E12" s="5">
+        <v>12</v>
+      </c>
+      <c r="F12" s="5">
+        <v>12</v>
+      </c>
+      <c r="G12" s="5">
+        <v>4</v>
+      </c>
+      <c r="H12" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8">
+      <c r="B13" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="5">
+        <v>12</v>
+      </c>
+      <c r="D13" s="12">
+        <v>8</v>
+      </c>
+      <c r="E13" s="5">
+        <v>4</v>
+      </c>
+      <c r="F13" s="5">
+        <v>12</v>
+      </c>
+      <c r="G13" s="5">
+        <v>4</v>
+      </c>
+      <c r="H13" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8">
+      <c r="B14" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="5">
+        <v>4</v>
+      </c>
+      <c r="D14" s="5">
+        <v>12</v>
+      </c>
+      <c r="E14" s="12">
+        <v>8</v>
+      </c>
+      <c r="F14" s="5">
+        <v>4</v>
+      </c>
+      <c r="G14" s="5">
+        <v>12</v>
+      </c>
+      <c r="H14" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8">
+      <c r="B15" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="5">
+        <v>4</v>
+      </c>
+      <c r="D15" s="5">
+        <v>4</v>
+      </c>
+      <c r="E15" s="5">
+        <v>12</v>
+      </c>
+      <c r="F15" s="12">
+        <v>8</v>
+      </c>
+      <c r="G15" s="5">
+        <v>12</v>
+      </c>
+      <c r="H15" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8">
+      <c r="B16" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="5">
+        <v>12</v>
+      </c>
+      <c r="D16" s="5">
+        <v>12</v>
+      </c>
+      <c r="E16" s="5">
+        <v>4</v>
+      </c>
+      <c r="F16" s="5">
+        <v>4</v>
+      </c>
+      <c r="G16" s="12">
+        <v>8</v>
+      </c>
+      <c r="H16" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" ht="15.75" thickBot="1">
+      <c r="B17" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="7">
+        <v>8</v>
+      </c>
+      <c r="D17" s="7">
+        <v>8</v>
+      </c>
+      <c r="E17" s="7">
+        <v>8</v>
+      </c>
+      <c r="F17" s="7">
+        <v>8</v>
+      </c>
+      <c r="G17" s="7">
+        <v>8</v>
+      </c>
+      <c r="H17" s="13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16" ht="15.75" thickBot="1"/>
+    <row r="20" spans="2:16">
+      <c r="B20" s="4"/>
+      <c r="C20" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H20" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="J20" s="4"/>
+      <c r="K20" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="L20" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="M20" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="N20" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="O20" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="P20" s="11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16">
+      <c r="B21" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="12">
+        <v>8</v>
+      </c>
+      <c r="D21" s="5">
+        <v>4</v>
+      </c>
+      <c r="E21" s="5">
+        <v>12</v>
+      </c>
+      <c r="F21" s="5">
+        <v>12</v>
+      </c>
+      <c r="G21" s="5">
+        <v>4</v>
+      </c>
+      <c r="H21" s="6">
+        <v>8</v>
+      </c>
+      <c r="J21" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="K21" s="12">
+        <v>8</v>
+      </c>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="6"/>
+    </row>
+    <row r="22" spans="2:16">
+      <c r="B22" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="5">
+        <v>12</v>
+      </c>
+      <c r="D22" s="12">
+        <v>8</v>
+      </c>
+      <c r="E22" s="5">
+        <v>8</v>
+      </c>
+      <c r="F22" s="5">
+        <v>12</v>
+      </c>
+      <c r="G22" s="5">
+        <v>4</v>
+      </c>
+      <c r="H22" s="6">
+        <v>4</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="K22" s="5"/>
+      <c r="L22" s="12">
+        <v>8</v>
+      </c>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="6"/>
+    </row>
+    <row r="23" spans="2:16">
+      <c r="B23" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23" s="5">
+        <v>4</v>
+      </c>
+      <c r="D23" s="5">
+        <v>8</v>
+      </c>
+      <c r="E23" s="12">
+        <v>8</v>
+      </c>
+      <c r="F23" s="5">
+        <v>4</v>
+      </c>
+      <c r="G23" s="5">
+        <v>12</v>
+      </c>
+      <c r="H23" s="6">
+        <v>12</v>
+      </c>
+      <c r="J23" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="12">
+        <v>8</v>
+      </c>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="6"/>
+    </row>
+    <row r="24" spans="2:16">
+      <c r="B24" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="5">
+        <v>4</v>
+      </c>
+      <c r="D24" s="5">
+        <v>4</v>
+      </c>
+      <c r="E24" s="5">
+        <v>12</v>
+      </c>
+      <c r="F24" s="12">
+        <v>8</v>
+      </c>
+      <c r="G24" s="5">
+        <v>8</v>
+      </c>
+      <c r="H24" s="6">
+        <v>12</v>
+      </c>
+      <c r="J24" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="12">
+        <v>8</v>
+      </c>
+      <c r="O24" s="5"/>
+      <c r="P24" s="6"/>
+    </row>
+    <row r="25" spans="2:16">
+      <c r="B25" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" s="5">
+        <v>12</v>
+      </c>
+      <c r="D25" s="5">
+        <v>12</v>
+      </c>
+      <c r="E25" s="5">
+        <v>4</v>
+      </c>
+      <c r="F25" s="5">
+        <v>8</v>
+      </c>
+      <c r="G25" s="12">
+        <v>8</v>
+      </c>
+      <c r="H25" s="6">
+        <v>4</v>
+      </c>
+      <c r="J25" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="12">
+        <v>8</v>
+      </c>
+      <c r="P25" s="6"/>
+    </row>
+    <row r="26" spans="2:16" ht="15.75" thickBot="1">
+      <c r="B26" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="7">
+        <v>8</v>
+      </c>
+      <c r="D26" s="7">
+        <v>12</v>
+      </c>
+      <c r="E26" s="7">
+        <v>4</v>
+      </c>
+      <c r="F26" s="7">
+        <v>4</v>
+      </c>
+      <c r="G26" s="7">
+        <v>12</v>
+      </c>
+      <c r="H26" s="13">
+        <v>8</v>
+      </c>
+      <c r="J26" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="7"/>
+      <c r="O26" s="7"/>
+      <c r="P26" s="13">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/zeitgeist/concepts/meister_der_elemente/Zahlen_Meister-der-Elemente.xlsx
+++ b/zeitgeist/concepts/meister_der_elemente/Zahlen_Meister-der-Elemente.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="30" windowWidth="22335" windowHeight="10935"/>
+    <workbookView xWindow="120" yWindow="30" windowWidth="20730" windowHeight="10935" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
-    <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
-    <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
+    <sheet name="Fightsheet" sheetId="1" r:id="rId1"/>
+    <sheet name="Chancen" sheetId="4" r:id="rId2"/>
+    <sheet name="Feuer" sheetId="2" r:id="rId3"/>
+    <sheet name="Wasser" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="92">
   <si>
     <t>Feuer</t>
   </si>
@@ -34,13 +35,271 @@
   </si>
   <si>
     <t>Erde</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Auswirkungen</t>
+  </si>
+  <si>
+    <t>Typ</t>
+  </si>
+  <si>
+    <t>Feuersbrunst</t>
+  </si>
+  <si>
+    <t>klein</t>
+  </si>
+  <si>
+    <t>groß</t>
+  </si>
+  <si>
+    <t>episch</t>
+  </si>
+  <si>
+    <t>Element</t>
+  </si>
+  <si>
+    <t>Sturmleuchte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Feuerelementare bekommen einen Bonus von +2 gegen alle anderen Elemente </t>
+  </si>
+  <si>
+    <t>Waldbrand</t>
+  </si>
+  <si>
+    <t>Feuerelementare erhalten +1 gegen Holz</t>
+  </si>
+  <si>
+    <t>Mana</t>
+  </si>
+  <si>
+    <t>Feuerelementare erhalten +4 gegen Wasser</t>
+  </si>
+  <si>
+    <t>Feuerelementare erhalten +2 gegen Metall</t>
+  </si>
+  <si>
+    <t>Feuerelementare erhalten +2 gegen Holz</t>
+  </si>
+  <si>
+    <t>Feuerelementare erhalten +4 gegen Luft</t>
+  </si>
+  <si>
+    <t>Feuerelementare erhalten +3 gegen Erde</t>
+  </si>
+  <si>
+    <t>Hitze des Vulkans</t>
+  </si>
+  <si>
+    <t>Feuer der Esse</t>
+  </si>
+  <si>
+    <t>Magnesiumfeuer</t>
+  </si>
+  <si>
+    <t>Feuerelementare erhalten +2 gegen Wasser</t>
+  </si>
+  <si>
+    <t>Feuerelementare erhalten +2 gegen Luft</t>
+  </si>
+  <si>
+    <t>Feuerelementare erhalten +1 gegen Metall</t>
+  </si>
+  <si>
+    <t>Feuerelementare erhalten +2 gegen Erde</t>
+  </si>
+  <si>
+    <t>Hitze der Wüste</t>
+  </si>
+  <si>
+    <t>Flamme des langen Atems</t>
+  </si>
+  <si>
+    <t>Neu entfachte Flamme</t>
+  </si>
+  <si>
+    <t>Glut der Esse</t>
+  </si>
+  <si>
+    <t>Äschernde Flamme</t>
+  </si>
+  <si>
+    <t>Feuerelementare erhalten +1 gegen Erde</t>
+  </si>
+  <si>
+    <t>Brütende Hitze</t>
+  </si>
+  <si>
+    <t>Feuerelementare erhalten +1 gegen Holz und Metall</t>
+  </si>
+  <si>
+    <t>Feuerelementare erhalten +2 gegen Holz und Metall</t>
+  </si>
+  <si>
+    <t>Feuerelementare erhalten +2 gegen Wasser und Luft</t>
+  </si>
+  <si>
+    <t>Feuerelementare erhalten +4 gegen Wasser und Luft</t>
+  </si>
+  <si>
+    <t>Feuerelementare erhalten +1 gegen Holz und Erde</t>
+  </si>
+  <si>
+    <t>Feuerelementare erhalten +2 gegen Wasser und Erde</t>
+  </si>
+  <si>
+    <t>Feuerelementare erhalten +1 gegen Metall und Erde</t>
+  </si>
+  <si>
+    <t>Feuerelementare erhalten +2 gegen Luft und Erde</t>
+  </si>
+  <si>
+    <t>Wütende Flamme</t>
+  </si>
+  <si>
+    <t>Ausdauernde Flamme</t>
+  </si>
+  <si>
+    <t>Unsterbliche Flamme</t>
+  </si>
+  <si>
+    <t>Hasserfüllte Flamme</t>
+  </si>
+  <si>
+    <t>Reinigendes Feuer</t>
+  </si>
+  <si>
+    <t>Feuer der Küste</t>
+  </si>
+  <si>
+    <t>Feuer im Kern</t>
+  </si>
+  <si>
+    <t>Überirdisches Feuer</t>
+  </si>
+  <si>
+    <t>Flammenhölle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Feuerelementare bekommen einen Bonus von +1 gegen alle anderen Elemente </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Feuerelementare bekommen einen Bonus von +3 gegen alle anderen Elemente </t>
+  </si>
+  <si>
+    <t>Höllenfeuer</t>
+  </si>
+  <si>
+    <t>Karten im Deck</t>
+  </si>
+  <si>
+    <t>Klein</t>
+  </si>
+  <si>
+    <t>Groß</t>
+  </si>
+  <si>
+    <t>Episch</t>
+  </si>
+  <si>
+    <t>Pro Element</t>
+  </si>
+  <si>
+    <t>W/Element</t>
+  </si>
+  <si>
+    <t>Gesamt</t>
+  </si>
+  <si>
+    <t>W/Gesamt</t>
+  </si>
+  <si>
+    <t>Wasserelementare erhalten +1 gegen Holz</t>
+  </si>
+  <si>
+    <t>Wasserelementare erhalten +2 gegen Holz</t>
+  </si>
+  <si>
+    <t>Wasserelementare erhalten +1 gegen Metall</t>
+  </si>
+  <si>
+    <t>Wasserelementare erhalten +2 gegen Metall</t>
+  </si>
+  <si>
+    <t>Wasserelementare erhalten +2 gegen Erde</t>
+  </si>
+  <si>
+    <t>Wasserelementare erhalten +2 gegen Luft</t>
+  </si>
+  <si>
+    <t>Wasserelementare erhalten +4 gegen Luft</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wasserelementare bekommen einen Bonus von +1 gegen alle anderen Elemente </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wasserelementare bekommen einen Bonus von +2 gegen alle anderen Elemente </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wasserelementare bekommen einen Bonus von +3 gegen alle anderen Elemente </t>
+  </si>
+  <si>
+    <t>Wasserelementare erhalten +3 gegen Holz</t>
+  </si>
+  <si>
+    <t>Wasserelementare erhalten +4 gegen Erde</t>
+  </si>
+  <si>
+    <t>Wasserelementare erhalten +1 gegen Feuer</t>
+  </si>
+  <si>
+    <t>Wasserelementare erhalten +2 gegen Feuer</t>
+  </si>
+  <si>
+    <t>Wasserelementare erhalten +2 gegen Erde und Luft</t>
+  </si>
+  <si>
+    <t>Wasserelementare erhalten +4 gegen Erde und Luft</t>
+  </si>
+  <si>
+    <t>Wasserelementare erhalten +1 gegen Feuer und Metall</t>
+  </si>
+  <si>
+    <t>Wasserelementare erhalten +2 gegen Feuer und Metall</t>
+  </si>
+  <si>
+    <t>Wasserelementare erhalten +1 gegen Holz und Feuer</t>
+  </si>
+  <si>
+    <t>Wasserelementare erhalten +1 gegen Metall und Holz</t>
+  </si>
+  <si>
+    <t>Wasserelementare erhalten +2 gegen Holz und Erde</t>
+  </si>
+  <si>
+    <t>Wasserelementare erhalten +2 gegen Luft und Holz</t>
+  </si>
+  <si>
+    <t>Platzregen</t>
+  </si>
+  <si>
+    <t>Geduld des Flusses</t>
+  </si>
+  <si>
+    <t>Springflut</t>
+  </si>
+  <si>
+    <t>Fressendes Salzwasser</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -51,6 +310,21 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -226,10 +500,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -244,8 +519,12 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Prozent" xfId="1" builtinId="5"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -540,8 +819,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:P26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20:H26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1106,24 +1385,1050 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="B1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6" s="1" customFormat="1"/>
+    <row r="2" spans="2:6">
+      <c r="C2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6">
+      <c r="B3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="1">
+        <v>28</v>
+      </c>
+      <c r="D3">
+        <f>C3*6</f>
+        <v>168</v>
+      </c>
+      <c r="E3" s="16">
+        <f>C3/C3</f>
+        <v>1</v>
+      </c>
+      <c r="F3" s="16">
+        <f>C3/D3</f>
+        <v>0.16666666666666666</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4">
+        <v>16</v>
+      </c>
+      <c r="D4" s="1">
+        <f>C4*6</f>
+        <v>96</v>
+      </c>
+      <c r="E4" s="16">
+        <f>C4/C3</f>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="F4" s="16">
+        <f>C4/D3</f>
+        <v>9.5238095238095233E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5">
+        <v>8</v>
+      </c>
+      <c r="D5" s="1">
+        <f>C5*6</f>
+        <v>48</v>
+      </c>
+      <c r="E5" s="16">
+        <f>C5/C3</f>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="F5" s="16">
+        <f>C5/D3</f>
+        <v>4.7619047619047616E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6" s="1">
+        <f>C6*6</f>
+        <v>24</v>
+      </c>
+      <c r="E6" s="16">
+        <f>C6/C3</f>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="F6" s="16">
+        <f>C6/D3</f>
+        <v>2.3809523809523808E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="D7" s="1"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="73.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="14" customFormat="1" ht="18.75">
+      <c r="A1" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="1" customFormat="1">
+      <c r="A3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="1" customFormat="1">
+      <c r="A5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="1" customFormat="1">
+      <c r="A8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" s="1" customFormat="1">
+      <c r="A11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" s="1" customFormat="1">
+      <c r="A14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="1" customFormat="1">
+      <c r="A18" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E18" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" s="1" customFormat="1">
+      <c r="A19" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E19" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="1" customFormat="1">
+      <c r="A20" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E20" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" s="1" customFormat="1">
+      <c r="A21" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E21" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E22" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" s="1" customFormat="1">
+      <c r="A23" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E23" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E24" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E25" s="1">
+        <v>5</v>
+      </c>
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="1:7" s="1" customFormat="1">
+      <c r="A26" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E26" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" s="1" customFormat="1">
+      <c r="A27" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E27" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" s="1" customFormat="1">
+      <c r="A28" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E28" s="1">
+        <v>5</v>
+      </c>
+      <c r="F28" s="15"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="24.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="73.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="11.42578125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="14" customFormat="1" ht="18.75">
+      <c r="A1" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="B2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="B3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="B4" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="B5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="B6" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="B11" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="B12" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="B13" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="B16" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E18" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6">
+      <c r="B19" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E19" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="B20" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E20" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6">
+      <c r="B21" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E21" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6">
+      <c r="B22" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E22" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6">
+      <c r="B23" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E23" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6">
+      <c r="B24" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E24" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6">
+      <c r="B25" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E25" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6">
+      <c r="B26" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E26" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6">
+      <c r="B27" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E27" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6">
+      <c r="B28" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E28" s="1">
+        <v>5</v>
+      </c>
+      <c r="F28" s="15"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/zeitgeist/concepts/meister_der_elemente/Zahlen_Meister-der-Elemente.xlsx
+++ b/zeitgeist/concepts/meister_der_elemente/Zahlen_Meister-der-Elemente.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="30" windowWidth="20730" windowHeight="10935" activeTab="3"/>
+    <workbookView xWindow="120" yWindow="30" windowWidth="20730" windowHeight="10935" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Fightsheet" sheetId="1" r:id="rId1"/>
     <sheet name="Chancen" sheetId="4" r:id="rId2"/>
     <sheet name="Feuer" sheetId="2" r:id="rId3"/>
     <sheet name="Wasser" sheetId="3" r:id="rId4"/>
+    <sheet name="Holz" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="128">
   <si>
     <t>Feuer</t>
   </si>
@@ -293,6 +294,114 @@
   </si>
   <si>
     <t>Fressendes Salzwasser</t>
+  </si>
+  <si>
+    <t>Treibendes Holz</t>
+  </si>
+  <si>
+    <t>Verloren im Sturm</t>
+  </si>
+  <si>
+    <t>Verloren auf See</t>
+  </si>
+  <si>
+    <t>Nagender Rost</t>
+  </si>
+  <si>
+    <t>Sprühende Kraft</t>
+  </si>
+  <si>
+    <t>Feuerelementare erhalten -2 gegen Holz</t>
+  </si>
+  <si>
+    <t>Feuerelementare erhalten -4 gegen Holz</t>
+  </si>
+  <si>
+    <t>Metallelementare erhalten -2 gegen Holz</t>
+  </si>
+  <si>
+    <t>Metallelementare erhalten -4 gegen Holz</t>
+  </si>
+  <si>
+    <t>Stärke der Eiche</t>
+  </si>
+  <si>
+    <t>Schützende Rinde</t>
+  </si>
+  <si>
+    <t>Steinrinde</t>
+  </si>
+  <si>
+    <t>Unerreichbare Wurzeln</t>
+  </si>
+  <si>
+    <t>Wasserelementare erhalten -1 gegen Holz</t>
+  </si>
+  <si>
+    <t>Wasserelementare erhalten -2 gegen Holz</t>
+  </si>
+  <si>
+    <t>Wasserelementare erhalten -3 gegen Holz</t>
+  </si>
+  <si>
+    <t>Erdelementare erhalten -1 gegen Holz</t>
+  </si>
+  <si>
+    <t>Erdelementare erhalten -2 gegen Holz</t>
+  </si>
+  <si>
+    <t>Luftelementare erhalten -1 gegen Holz</t>
+  </si>
+  <si>
+    <t>Luftelementare erhalten -2 gegen Holz</t>
+  </si>
+  <si>
+    <t>Erd- und Luftelementare erhalten -1 gegen Holz</t>
+  </si>
+  <si>
+    <t>Erd- und Luftelementare erhalten -2 gegen Holz</t>
+  </si>
+  <si>
+    <t>Feuer- und Metallelementare erhalten -2 gegen Holz</t>
+  </si>
+  <si>
+    <t>Feuer- und Metallelementare erhalten -4 gegen Holz</t>
+  </si>
+  <si>
+    <t>Holz- und Luftelementare erhalten -1 gegen Holz</t>
+  </si>
+  <si>
+    <t>Holz- und Erdelementare erhalten -1 gegen Holz</t>
+  </si>
+  <si>
+    <t>Holz- und Feuerelementare erhalten -2 gegen Holz</t>
+  </si>
+  <si>
+    <t>Holz- und Metallelementare erhalten -2 gegen Holz</t>
+  </si>
+  <si>
+    <t>Alle anderen Elemente  bekommen einen Abzug von -1 gegen Holz</t>
+  </si>
+  <si>
+    <t>Alle anderen Elemente  bekommen einen Abzug von -2 gegen Holz</t>
+  </si>
+  <si>
+    <t>Alle anderen Elemente  bekommen einen Abzug von -3 gegen Holz</t>
+  </si>
+  <si>
+    <t>Starke Wurzeln</t>
+  </si>
+  <si>
+    <t>Ewige Wurzeln</t>
+  </si>
+  <si>
+    <t>Genügsamer Baum</t>
+  </si>
+  <si>
+    <t>Nie durstiger Baum</t>
+  </si>
+  <si>
+    <t>Selten durstiger Baum</t>
   </si>
 </sst>
 </file>
@@ -1506,7 +1615,7 @@
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2003,8 +2112,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2032,8 +2141,11 @@
       </c>
     </row>
     <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>96</v>
+      </c>
       <c r="B2" s="1" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>10</v>
@@ -2046,8 +2158,11 @@
       </c>
     </row>
     <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
+        <v>96</v>
+      </c>
       <c r="B3" s="1" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>10</v>
@@ -2061,7 +2176,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="B4" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>10</v>
@@ -2074,6 +2189,9 @@
       </c>
     </row>
     <row r="5" spans="1:5">
+      <c r="A5" s="1" t="s">
+        <v>95</v>
+      </c>
       <c r="B5" s="1" t="s">
         <v>68</v>
       </c>
@@ -2088,6 +2206,9 @@
       </c>
     </row>
     <row r="6" spans="1:5">
+      <c r="A6" s="1" t="s">
+        <v>95</v>
+      </c>
       <c r="B6" s="1" t="s">
         <v>68</v>
       </c>
@@ -2120,10 +2241,10 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>10</v>
@@ -2137,10 +2258,10 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>10</v>
@@ -2154,52 +2275,61 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E10" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="B11" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E11" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="B12" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E12" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="B13" s="1" t="s">
-        <v>79</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>10</v>
@@ -2422,6 +2552,458 @@
       </c>
       <c r="D28" s="1" t="s">
         <v>1</v>
+      </c>
+      <c r="E28" s="1">
+        <v>5</v>
+      </c>
+      <c r="F28" s="15"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="24.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="73.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="11.42578125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="14" customFormat="1" ht="18.75">
+      <c r="A1" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="B11" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="B12" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="B13" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E17" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E18" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6">
+      <c r="B19" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="B20" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6">
+      <c r="B21" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E21" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6">
+      <c r="B22" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E22" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6">
+      <c r="B23" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E23" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6">
+      <c r="B24" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E24" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6">
+      <c r="B25" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E25" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6">
+      <c r="B26" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E26" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6">
+      <c r="B27" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E27" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6">
+      <c r="B28" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="E28" s="1">
         <v>5</v>

--- a/zeitgeist/concepts/meister_der_elemente/Zahlen_Meister-der-Elemente.xlsx
+++ b/zeitgeist/concepts/meister_der_elemente/Zahlen_Meister-der-Elemente.xlsx
@@ -11,14 +11,17 @@
     <sheet name="Chancen" sheetId="4" r:id="rId2"/>
     <sheet name="Feuer" sheetId="2" r:id="rId3"/>
     <sheet name="Wasser" sheetId="3" r:id="rId4"/>
-    <sheet name="Holz" sheetId="5" r:id="rId5"/>
+    <sheet name="Luft" sheetId="7" r:id="rId5"/>
+    <sheet name="Holz" sheetId="5" r:id="rId6"/>
+    <sheet name="Metall" sheetId="6" r:id="rId7"/>
+    <sheet name="Erde" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="216">
   <si>
     <t>Feuer</t>
   </si>
@@ -275,18 +278,9 @@
     <t>Wasserelementare erhalten +1 gegen Holz und Feuer</t>
   </si>
   <si>
-    <t>Wasserelementare erhalten +1 gegen Metall und Holz</t>
-  </si>
-  <si>
     <t>Wasserelementare erhalten +2 gegen Holz und Erde</t>
   </si>
   <si>
-    <t>Wasserelementare erhalten +2 gegen Luft und Holz</t>
-  </si>
-  <si>
-    <t>Platzregen</t>
-  </si>
-  <si>
     <t>Geduld des Flusses</t>
   </si>
   <si>
@@ -368,18 +362,6 @@
     <t>Feuer- und Metallelementare erhalten -4 gegen Holz</t>
   </si>
   <si>
-    <t>Holz- und Luftelementare erhalten -1 gegen Holz</t>
-  </si>
-  <si>
-    <t>Holz- und Erdelementare erhalten -1 gegen Holz</t>
-  </si>
-  <si>
-    <t>Holz- und Feuerelementare erhalten -2 gegen Holz</t>
-  </si>
-  <si>
-    <t>Holz- und Metallelementare erhalten -2 gegen Holz</t>
-  </si>
-  <si>
     <t>Alle anderen Elemente  bekommen einen Abzug von -1 gegen Holz</t>
   </si>
   <si>
@@ -402,6 +384,291 @@
   </si>
   <si>
     <t>Selten durstiger Baum</t>
+  </si>
+  <si>
+    <t>Feuerelementare erhalten -2 gegen Metall</t>
+  </si>
+  <si>
+    <t>Feuerelementare erhalten -4 gegen Metall</t>
+  </si>
+  <si>
+    <t>Wasserelementare erhalten -2 gegen Metall</t>
+  </si>
+  <si>
+    <t>Erdelementare erhalten -1 gegen Metall</t>
+  </si>
+  <si>
+    <t>Erdelementare erhalten -2 gegen Metall</t>
+  </si>
+  <si>
+    <t>Luftelementare erhalten -1 gegen Metall</t>
+  </si>
+  <si>
+    <t>Luftelementare erhalten -2 gegen Metall</t>
+  </si>
+  <si>
+    <t>Alle anderen Elemente  bekommen einen Abzug von -1 gegen Metall</t>
+  </si>
+  <si>
+    <t>Alle anderen Elemente  bekommen einen Abzug von -2 gegen Metall</t>
+  </si>
+  <si>
+    <t>Alle anderen Elemente  bekommen einen Abzug von -3 gegen Metall</t>
+  </si>
+  <si>
+    <t>Holzelementare erhalten -2 gegen Metall</t>
+  </si>
+  <si>
+    <t>Holzelementare erhalten -1 gegen Metall</t>
+  </si>
+  <si>
+    <t>Wasserelementare erhalten -4 gegen Metall</t>
+  </si>
+  <si>
+    <t>Luftelementare erhalten -3 gegen Metall</t>
+  </si>
+  <si>
+    <t>Wasser- und Feuerelementare erhalten -4 gegen Metall</t>
+  </si>
+  <si>
+    <t>Wasser- und Feuerelementare erhalten -2 gegen Metall</t>
+  </si>
+  <si>
+    <t>Luft- und Erdelementare erhalten -1 gegen Metall</t>
+  </si>
+  <si>
+    <t>Luft- und Erdelementare erhalten -2 gegen Metall</t>
+  </si>
+  <si>
+    <t>Scharfe Schneiden</t>
+  </si>
+  <si>
+    <t>Metall der Erde</t>
+  </si>
+  <si>
+    <t>Luftelementare erhalten +1 gegen Feuer</t>
+  </si>
+  <si>
+    <t>Luftelementare erhalten +2 gegen Feuer</t>
+  </si>
+  <si>
+    <t>Luftelementare erhalten +1 gegen Metall</t>
+  </si>
+  <si>
+    <t>Luftelementare erhalten +2 gegen Metall</t>
+  </si>
+  <si>
+    <t>Luftelementare erhalten +2 gegen Holz</t>
+  </si>
+  <si>
+    <t>Luftelementare erhalten +2 gegen Erde</t>
+  </si>
+  <si>
+    <t>Luftelementare erhalten +4 gegen Erde</t>
+  </si>
+  <si>
+    <t>Luftelementare erhalten +1 gegen Feuer und Metall</t>
+  </si>
+  <si>
+    <t>Luftelementare erhalten +2 gegen Feuer und Metall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luftelementare bekommen einen Bonus von +1 gegen alle anderen Elemente </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luftelementare bekommen einen Bonus von +2 gegen alle anderen Elemente </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luftelementare bekommen einen Bonus von +3 gegen alle anderen Elemente </t>
+  </si>
+  <si>
+    <t>Luftelementare erhalten +1 gegen Wasser</t>
+  </si>
+  <si>
+    <t>Luftelementare erhalten +2 gegen Wasser</t>
+  </si>
+  <si>
+    <t>Luftelementare erhalten +3 gegen Metall</t>
+  </si>
+  <si>
+    <t>Luftelementare erhalten +4 gegen Holz</t>
+  </si>
+  <si>
+    <t>Luftelementare erhalten +4 gegen Erde und Holz</t>
+  </si>
+  <si>
+    <t>Luftelementare erhalten +2 gegen Erde und Holz</t>
+  </si>
+  <si>
+    <t>Luftelementare erhalten +1 gegen Metall und Wasser</t>
+  </si>
+  <si>
+    <t>Luftelementare erhalten +2 gegen Metall und Holz</t>
+  </si>
+  <si>
+    <t>Luftelementare erhalten +2 gegen Metall und Erde</t>
+  </si>
+  <si>
+    <t>Luftelementare erhalten +1 gegen Metall und Feuer</t>
+  </si>
+  <si>
+    <t>Wasserelementare erhalten +1 gegen Holz und Metall</t>
+  </si>
+  <si>
+    <t>Wasserelementare erhalten +2 gegen Holz und Luft</t>
+  </si>
+  <si>
+    <t>Holz- und Luftelementare erhalten -1 gegen Wasser</t>
+  </si>
+  <si>
+    <t>Holz- und Feuerelementare erhalten -2 gegen Wasser</t>
+  </si>
+  <si>
+    <t>Holz- und Erdelementare erhalten -1 gegen Wasser</t>
+  </si>
+  <si>
+    <t>Holz- und Metallelementare erhalten -2 gegen Wasser</t>
+  </si>
+  <si>
+    <t>Luft- und Luftelementare erhalten -1 gegen Metall</t>
+  </si>
+  <si>
+    <t>Luft- und Wasserelementare erhalten -2 gegen Metall</t>
+  </si>
+  <si>
+    <t>Luft- und Feuerelementare erhalten -2 gegen Metall</t>
+  </si>
+  <si>
+    <t>Holzelementare erhalten -2 gegen Erde</t>
+  </si>
+  <si>
+    <t>Luftelementare erhalten -1 gegen Erde</t>
+  </si>
+  <si>
+    <t>Luftelementare erhalten -2 gegen Erde</t>
+  </si>
+  <si>
+    <t>Feuerelementare erhalten -2 gegen Erde</t>
+  </si>
+  <si>
+    <t>Wasserelementare erhalten -2 gegen Erde</t>
+  </si>
+  <si>
+    <t>Alle anderen Elemente  bekommen einen Abzug von -1 gegen Erde</t>
+  </si>
+  <si>
+    <t>Alle anderen Elemente  bekommen einen Abzug von -2 gegen Erde</t>
+  </si>
+  <si>
+    <t>Alle anderen Elemente  bekommen einen Abzug von -3 gegen Erde</t>
+  </si>
+  <si>
+    <t>Wasserelementare erhalten -1 gegen Erde</t>
+  </si>
+  <si>
+    <t>Feuerelementare erhalten -1 gegen Erde</t>
+  </si>
+  <si>
+    <t>Feuerelementare erhalten -3 gegen Erde</t>
+  </si>
+  <si>
+    <t>Holzelementare erhalten -4 gegen Erde</t>
+  </si>
+  <si>
+    <t>Metallelementare erhalten -2 gegen Erde</t>
+  </si>
+  <si>
+    <t>Metallelementare erhalten -4 gegen Erde</t>
+  </si>
+  <si>
+    <t>Holz- und Metallelementare erhalten -2 gegen Erde</t>
+  </si>
+  <si>
+    <t>Holz- und Metallelementare erhalten -4 gegen Erde</t>
+  </si>
+  <si>
+    <t>Feuer- und Erdelementare erhalten -1 gegen Erde</t>
+  </si>
+  <si>
+    <t>Feuer- und Wasserelementare erhalten -1 gegen Erde</t>
+  </si>
+  <si>
+    <t>Feuer- und Holzelementare erhalten -2 gegen Erde</t>
+  </si>
+  <si>
+    <t>Feuer- und Metallelementare erhalten -2 gegen Erde</t>
+  </si>
+  <si>
+    <t>Ewiger Damm</t>
+  </si>
+  <si>
+    <t>Sandsturm</t>
+  </si>
+  <si>
+    <t>Dichter Lehm</t>
+  </si>
+  <si>
+    <t>Blanker Granit</t>
+  </si>
+  <si>
+    <t>Felsiger Grund</t>
+  </si>
+  <si>
+    <t>Wasser- und Luftelementare erhalten -1 gegen Erde</t>
+  </si>
+  <si>
+    <t>Wasser- und Luftelementare erhalten -2 gegen Erde</t>
+  </si>
+  <si>
+    <t>Heller Nebel</t>
+  </si>
+  <si>
+    <t>Dichter Nebel</t>
+  </si>
+  <si>
+    <t>Löschendes Wasser</t>
+  </si>
+  <si>
+    <t>Erkaltendes Wasser</t>
+  </si>
+  <si>
+    <t>Reinwaschender Regen</t>
+  </si>
+  <si>
+    <t>Auswaschender Regen</t>
+  </si>
+  <si>
+    <t>Mächtige Flut</t>
+  </si>
+  <si>
+    <t>Rollende Flutwelle</t>
+  </si>
+  <si>
+    <t>Todbringender Tsunami</t>
+  </si>
+  <si>
+    <t>Gelöschtes Leben</t>
+  </si>
+  <si>
+    <t>Tosender Sturm</t>
+  </si>
+  <si>
+    <t>Brechender Sturm</t>
+  </si>
+  <si>
+    <t>Wirbelnder Tornade</t>
+  </si>
+  <si>
+    <t>Windhose</t>
+  </si>
+  <si>
+    <t>Wut des Himmels</t>
+  </si>
+  <si>
+    <t>Zorn des Himmels</t>
+  </si>
+  <si>
+    <t>Die Rache des Himmels</t>
   </si>
 </sst>
 </file>
@@ -1497,7 +1764,7 @@
   <dimension ref="B1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1622,6 +1889,8 @@
   <cols>
     <col min="1" max="1" width="24.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="73.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="14" customFormat="1" ht="18.75">
@@ -1981,12 +2250,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" s="1" customFormat="1">
       <c r="A22" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>11</v>
@@ -1998,12 +2267,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="1" customFormat="1">
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>11</v>
@@ -2113,14 +2382,17 @@
   <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="24.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="73.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="11.42578125" style="1"/>
+    <col min="2" max="2" width="74.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="1"/>
+    <col min="5" max="5" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="14" customFormat="1" ht="18.75">
@@ -2142,7 +2414,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>78</v>
@@ -2159,7 +2431,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>78</v>
@@ -2190,7 +2462,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>68</v>
@@ -2207,7 +2479,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>68</v>
@@ -2224,7 +2496,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>69</v>
@@ -2241,7 +2513,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>66</v>
@@ -2258,7 +2530,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>67</v>
@@ -2275,7 +2547,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>76</v>
@@ -2292,7 +2564,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>70</v>
@@ -2309,7 +2581,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>70</v>
@@ -2326,7 +2598,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>77</v>
@@ -2343,7 +2615,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
-        <v>88</v>
+        <v>199</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>71</v>
@@ -2360,7 +2632,7 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
-        <v>88</v>
+        <v>199</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>71</v>
@@ -2376,6 +2648,9 @@
       </c>
     </row>
     <row r="16" spans="1:5">
+      <c r="A16" s="1" t="s">
+        <v>200</v>
+      </c>
       <c r="B16" s="1" t="s">
         <v>72</v>
       </c>
@@ -2389,7 +2664,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:6">
+    <row r="17" spans="1:6">
+      <c r="A17" s="1" t="s">
+        <v>202</v>
+      </c>
       <c r="B17" s="1" t="s">
         <v>82</v>
       </c>
@@ -2403,7 +2681,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="2:6">
+    <row r="18" spans="1:6">
+      <c r="A18" s="1" t="s">
+        <v>201</v>
+      </c>
       <c r="B18" s="1" t="s">
         <v>83</v>
       </c>
@@ -2417,7 +2698,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="2:6">
+    <row r="19" spans="1:6">
+      <c r="A19" s="1" t="s">
+        <v>203</v>
+      </c>
       <c r="B19" s="1" t="s">
         <v>80</v>
       </c>
@@ -2431,7 +2715,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="2:6">
+    <row r="20" spans="1:6">
+      <c r="A20" s="1" t="s">
+        <v>204</v>
+      </c>
       <c r="B20" s="1" t="s">
         <v>81</v>
       </c>
@@ -2445,7 +2732,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="2:6">
+    <row r="21" spans="1:6">
       <c r="B21" s="1" t="s">
         <v>84</v>
       </c>
@@ -2459,9 +2746,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="2:6">
+    <row r="22" spans="1:6">
       <c r="B22" s="1" t="s">
-        <v>86</v>
+        <v>163</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>11</v>
@@ -2473,7 +2760,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="2:6">
+    <row r="23" spans="1:6">
+      <c r="A23" s="1" t="s">
+        <v>208</v>
+      </c>
       <c r="B23" s="1" t="s">
         <v>85</v>
       </c>
@@ -2487,9 +2777,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:6">
+    <row r="24" spans="1:6">
       <c r="B24" s="1" t="s">
-        <v>87</v>
+        <v>164</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>11</v>
@@ -2501,7 +2791,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="2:6">
+    <row r="25" spans="1:6">
+      <c r="A25" s="1" t="s">
+        <v>205</v>
+      </c>
       <c r="B25" s="1" t="s">
         <v>73</v>
       </c>
@@ -2515,7 +2808,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:6">
+    <row r="26" spans="1:6">
+      <c r="A26" s="1" t="s">
+        <v>205</v>
+      </c>
       <c r="B26" s="1" t="s">
         <v>73</v>
       </c>
@@ -2529,7 +2825,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="2:6">
+    <row r="27" spans="1:6">
+      <c r="A27" s="1" t="s">
+        <v>206</v>
+      </c>
       <c r="B27" s="1" t="s">
         <v>74</v>
       </c>
@@ -2543,7 +2842,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="2:6">
+    <row r="28" spans="1:6">
+      <c r="A28" s="1" t="s">
+        <v>207</v>
+      </c>
       <c r="B28" s="1" t="s">
         <v>75</v>
       </c>
@@ -2568,14 +2870,17 @@
   <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="24.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="73.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="11.42578125" style="1"/>
+    <col min="2" max="2" width="71.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="1"/>
+    <col min="5" max="5" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="14" customFormat="1" ht="18.75">
@@ -2596,11 +2901,457 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="1" t="s">
-        <v>102</v>
-      </c>
       <c r="B2" s="1" t="s">
-        <v>97</v>
+        <v>141</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="B3" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="B4" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="B5" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="B6" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="B7" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="B8" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="B9" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="B10" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="B17" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="B18" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="B19" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="B20" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="B21" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="B22" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E22" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="B23" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="B24" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E24" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E25" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E28" s="1">
+        <v>5</v>
+      </c>
+      <c r="F28" s="15"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="24.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="61.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="1"/>
+    <col min="5" max="5" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="11.42578125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="14" customFormat="1" ht="18.75">
+      <c r="A1" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="B2" s="1" t="s">
+        <v>105</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>10</v>
@@ -2613,11 +3364,8 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="1" t="s">
-        <v>102</v>
-      </c>
       <c r="B3" s="1" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>10</v>
@@ -2630,11 +3378,8 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="1" t="s">
-        <v>104</v>
-      </c>
       <c r="B4" s="1" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>10</v>
@@ -2648,10 +3393,10 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>10</v>
@@ -2665,10 +3410,10 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>10</v>
@@ -2682,10 +3427,10 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>10</v>
@@ -2699,10 +3444,10 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>10</v>
@@ -2716,10 +3461,10 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>10</v>
@@ -2733,10 +3478,10 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>10</v>
@@ -2749,8 +3494,11 @@
       </c>
     </row>
     <row r="11" spans="1:5">
+      <c r="A11" s="1" t="s">
+        <v>99</v>
+      </c>
       <c r="B11" s="1" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>10</v>
@@ -2763,8 +3511,11 @@
       </c>
     </row>
     <row r="12" spans="1:5">
+      <c r="A12" s="1" t="s">
+        <v>99</v>
+      </c>
       <c r="B12" s="1" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>10</v>
@@ -2777,8 +3528,11 @@
       </c>
     </row>
     <row r="13" spans="1:5">
+      <c r="A13" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="B13" s="1" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>10</v>
@@ -2792,10 +3546,10 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
-        <v>123</v>
+        <v>98</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>10</v>
@@ -2809,10 +3563,10 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>10</v>
@@ -2826,10 +3580,10 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
-        <v>124</v>
+        <v>100</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>10</v>
@@ -2843,7 +3597,7 @@
     </row>
     <row r="17" spans="2:6">
       <c r="B17" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>11</v>
@@ -2857,7 +3611,7 @@
     </row>
     <row r="18" spans="2:6">
       <c r="B18" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>11</v>
@@ -2871,7 +3625,7 @@
     </row>
     <row r="19" spans="2:6">
       <c r="B19" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>11</v>
@@ -2885,7 +3639,7 @@
     </row>
     <row r="20" spans="2:6">
       <c r="B20" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>11</v>
@@ -2899,7 +3653,7 @@
     </row>
     <row r="21" spans="2:6">
       <c r="B21" s="1" t="s">
-        <v>116</v>
+        <v>165</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>11</v>
@@ -2913,7 +3667,7 @@
     </row>
     <row r="22" spans="2:6">
       <c r="B22" s="1" t="s">
-        <v>118</v>
+        <v>167</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>11</v>
@@ -2927,7 +3681,7 @@
     </row>
     <row r="23" spans="2:6">
       <c r="B23" s="1" t="s">
-        <v>117</v>
+        <v>166</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>11</v>
@@ -2941,7 +3695,7 @@
     </row>
     <row r="24" spans="2:6">
       <c r="B24" s="1" t="s">
-        <v>119</v>
+        <v>168</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>11</v>
@@ -2955,7 +3709,7 @@
     </row>
     <row r="25" spans="2:6">
       <c r="B25" s="1" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>12</v>
@@ -2969,7 +3723,7 @@
     </row>
     <row r="26" spans="2:6">
       <c r="B26" s="1" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>12</v>
@@ -2983,7 +3737,7 @@
     </row>
     <row r="27" spans="2:6">
       <c r="B27" s="1" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>12</v>
@@ -2997,13 +3751,887 @@
     </row>
     <row r="28" spans="2:6">
       <c r="B28" s="1" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>2</v>
+      </c>
+      <c r="E28" s="1">
+        <v>5</v>
+      </c>
+      <c r="F28" s="15"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="24.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="63.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="1"/>
+    <col min="5" max="5" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="11.42578125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="14" customFormat="1" ht="18.75">
+      <c r="A1" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="B4" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="B7" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="B8" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="B9" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="B10" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="B11" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="B12" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="B13" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="B14" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="B15" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="B16" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6">
+      <c r="B19" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="B20" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6">
+      <c r="B21" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6">
+      <c r="B22" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6">
+      <c r="B23" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6">
+      <c r="B24" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E24" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6">
+      <c r="B25" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E25" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6">
+      <c r="B26" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6">
+      <c r="B27" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6">
+      <c r="B28" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E28" s="1">
+        <v>5</v>
+      </c>
+      <c r="F28" s="15"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="24.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="61.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="1"/>
+    <col min="5" max="5" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="11.42578125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="14" customFormat="1" ht="18.75">
+      <c r="A1" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="B7" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="B8" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="B9" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="B10" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="B14" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="B15" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="B16" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6">
+      <c r="B19" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="B20" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6">
+      <c r="B21" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6">
+      <c r="B22" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6">
+      <c r="B23" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6">
+      <c r="B24" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6">
+      <c r="B25" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E25" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6">
+      <c r="B26" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6">
+      <c r="B27" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6">
+      <c r="B28" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="E28" s="1">
         <v>5</v>
